--- a/excercises/excercises/40.choke.xlsx
+++ b/excercises/excercises/40.choke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A850EDE9-C3BB-4C87-BFDB-D7F16A5A2672}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1732EFAD-5C35-4D9A-A30F-83C2217BD0E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38205" yWindow="210" windowWidth="16860" windowHeight="20790" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId1"/>
@@ -21,29 +21,18 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'База насосов'!$A$3:$O$1267</definedName>
-    <definedName name="betta_gas1_" localSheetId="1">'Упражнение MF 1 '!$J$47</definedName>
-    <definedName name="betta_gas1_">#REF!</definedName>
-    <definedName name="betta_gas2_" localSheetId="1">'Упражнение MF 1 '!$K$47</definedName>
-    <definedName name="betta_gas2_">#REF!</definedName>
-    <definedName name="betta_gas3_" localSheetId="1">'Упражнение MF 1 '!$L$47</definedName>
-    <definedName name="betta_gas3_">#REF!</definedName>
     <definedName name="Bob_" localSheetId="1">'Упражнение MF 1 '!$C$14</definedName>
     <definedName name="d_choke">'Упражнение MF 1 '!$C$21</definedName>
     <definedName name="d_pipe">'Упражнение MF 1 '!$C$20</definedName>
     <definedName name="fw_" localSheetId="1">'Упражнение MF 1 '!$C$17</definedName>
-    <definedName name="fw_">#REF!</definedName>
     <definedName name="gamma_gas_" localSheetId="1">'Упражнение MF 1 '!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="1">'Упражнение MF 1 '!$C$7</definedName>
     <definedName name="gamma_wat_" localSheetId="1">'Упражнение MF 1 '!$C$8</definedName>
-    <definedName name="gamma_wat_">#REF!</definedName>
     <definedName name="muob_" localSheetId="1">'Упражнение MF 1 '!$C$15</definedName>
-    <definedName name="muob_">#REF!</definedName>
     <definedName name="Pb_" localSheetId="1">'Упражнение MF 1 '!$C$12</definedName>
     <definedName name="Pbuf_">'Упражнение MF 1 '!$C$28</definedName>
     <definedName name="Plin_">'Упражнение MF 1 '!$C$32</definedName>
     <definedName name="PVTstr_">'Упражнение MF 1 '!$C$23</definedName>
-    <definedName name="Q_" localSheetId="1">'Упражнение MF 1 '!#REF!</definedName>
-    <definedName name="Q_">#REF!</definedName>
     <definedName name="Qliq_">'Упражнение MF 1 '!$C$27</definedName>
     <definedName name="Rp_" localSheetId="1">'Упражнение MF 1 '!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="1">'Упражнение MF 1 '!$C$10</definedName>
@@ -685,7 +674,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -957,20 +946,11 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -983,6 +963,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3591,14 +3580,14 @@
       <definedName name="MF_Mumix_cP"/>
       <definedName name="MF_PChoke_atma"/>
       <definedName name="MF_QliqChoke_sm3day"/>
-      <definedName name="PVT_Encode_string"/>
+      <definedName name="PVT_encode_string"/>
       <definedName name="PVT_Mug_cP"/>
       <definedName name="PVT_Muo_cP"/>
       <definedName name="PVT_Muw_cP"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4507,29 +4496,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="V2" s="29" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="V2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
     </row>
     <row r="3" spans="2:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -60243,7 +60232,7 @@
   <dimension ref="A1:O144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -60399,7 +60388,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>139</v>
       </c>
@@ -60478,19 +60467,19 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="31"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="29" t="s">
         <v>165</v>
       </c>
       <c r="C23" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="31"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -60523,59 +60512,59 @@
       <c r="B29" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="30">
         <f t="array" ref="C29:G30">[1]!MF_PChoke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>25.957351684570313</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="30">
         <v>26</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="30">
         <v>25.957351684570313</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="30">
         <v>30</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="30">
         <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="32">
         <f t="array" ref="K29:M30">[1]!MF_dPChoke_atm(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>4.26483154296875E-2</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="32">
         <v>30</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M29" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C30" s="33" t="str">
+      <c r="C30" s="30" t="str">
         <v>Pout, atma</v>
       </c>
-      <c r="D30" s="33" t="str">
+      <c r="D30" s="30" t="str">
         <v>Pin_atma</v>
       </c>
-      <c r="E30" s="33" t="str">
+      <c r="E30" s="30" t="str">
         <v>Pout_atma</v>
       </c>
-      <c r="F30" s="33" t="str">
+      <c r="F30" s="30" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="G30" s="33" t="str">
+      <c r="G30" s="30" t="str">
         <v>cfChoke_fr</v>
       </c>
-      <c r="K30" s="35" t="str">
+      <c r="K30" s="32" t="str">
         <v>dP_atm</v>
       </c>
-      <c r="L30" s="35" t="str">
+      <c r="L30" s="32" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="M30" s="35" t="str">
+      <c r="M30" s="32" t="str">
         <v>cfChoke</v>
       </c>
     </row>
@@ -60594,59 +60583,59 @@
       <c r="B33" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="30">
         <f t="array" ref="C33:G34">[1]!MF_PChoke_atma(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>2.3125</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="30">
         <v>2.3125</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="30">
         <v>1</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="30">
         <v>30</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="30">
         <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>172</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="32">
         <f t="array" ref="K33:M34">[1]!MF_dPChoke_atm(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>1.3125</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="32">
         <v>30</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C34" s="33" t="str">
+      <c r="C34" s="30" t="str">
         <v>Pin, atma</v>
       </c>
-      <c r="D34" s="33" t="str">
+      <c r="D34" s="30" t="str">
         <v>Pin_atma</v>
       </c>
-      <c r="E34" s="33" t="str">
+      <c r="E34" s="30" t="str">
         <v>Pout_atma</v>
       </c>
-      <c r="F34" s="33" t="str">
+      <c r="F34" s="30" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="G34" s="33" t="str">
+      <c r="G34" s="30" t="str">
         <v>cfChoke_fr</v>
       </c>
-      <c r="K34" s="34" t="str">
+      <c r="K34" s="31" t="str">
         <v>dP_atm</v>
       </c>
-      <c r="L34" s="34" t="str">
+      <c r="L34" s="31" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="M34" s="34" t="str">
+      <c r="M34" s="31" t="str">
         <v>cfChoke</v>
       </c>
     </row>
@@ -60657,37 +60646,37 @@
       </c>
     </row>
     <row r="37" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="35">
+      <c r="C37" s="32">
         <f t="array" ref="C37:G38">[1]!MF_cfChoke_atma(Qliq_,fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,PVTstr_)</f>
         <v>0.91478093711559205</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="33">
         <v>26</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="33">
         <v>1</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="33">
         <v>30</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="32">
         <v>0.91478093711559205</v>
       </c>
     </row>
     <row r="38" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="36" t="str">
+      <c r="C38" s="33" t="str">
         <v>cor fact</v>
       </c>
-      <c r="D38" s="36" t="str">
+      <c r="D38" s="33" t="str">
         <v>Pin_atma</v>
       </c>
-      <c r="E38" s="36" t="str">
+      <c r="E38" s="33" t="str">
         <v>Pout_atma</v>
       </c>
-      <c r="F38" s="36" t="str">
+      <c r="F38" s="33" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="G38" s="36" t="str">
+      <c r="G38" s="33" t="str">
         <v>cfChoke_fr</v>
       </c>
     </row>
@@ -60698,37 +60687,37 @@
       </c>
     </row>
     <row r="41" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="34">
+      <c r="C41" s="31">
         <f t="array" ref="C41:G42">[1]!MF_QliqChoke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,C37,PVTstr_)</f>
         <v>10.000000000000002</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="31">
         <v>26</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="31">
         <v>1</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="31">
         <v>30</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="32">
         <v>0.91478093711559205</v>
       </c>
     </row>
     <row r="42" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="34" t="str">
+      <c r="C42" s="31" t="str">
         <v>Qliq</v>
       </c>
-      <c r="D42" s="34" t="str">
+      <c r="D42" s="31" t="str">
         <v>Pin_atma</v>
       </c>
-      <c r="E42" s="34" t="str">
+      <c r="E42" s="31" t="str">
         <v>Pout_atma</v>
       </c>
-      <c r="F42" s="34" t="str">
+      <c r="F42" s="31" t="str">
         <v>Tchoke_C</v>
       </c>
-      <c r="G42" s="34" t="str">
+      <c r="G42" s="31" t="str">
         <v>cfChoke</v>
       </c>
     </row>
@@ -60746,10 +60735,10 @@
       <c r="L47" s="11"/>
     </row>
     <row r="48" spans="2:13" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="30"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="18"/>
       <c r="F48" s="19"/>
       <c r="G48" s="20"/>
@@ -60807,47 +60796,47 @@
         <f>[1]!MF_PChoke_atma(C$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>1</v>
       </c>
-      <c r="D50" s="37">
+      <c r="D50" s="34">
         <f>[1]!MF_PChoke_atma(D$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>1.009765625</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="34">
         <f>[1]!MF_PChoke_atma(E$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>2.3125</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="34">
         <f>[1]!MF_PChoke_atma(F$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>4.6171875</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="34">
         <f>[1]!MF_PChoke_atma(G$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>6.90625</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="34">
         <f>[1]!MF_PChoke_atma(H$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>9.171875</v>
       </c>
-      <c r="I50" s="37">
+      <c r="I50" s="34">
         <f>[1]!MF_PChoke_atma(I$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>11.421875</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J50" s="34">
         <f>[1]!MF_PChoke_atma(J$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>22.34375</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="34">
         <f>[1]!MF_PChoke_atma(K$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>32.75</v>
       </c>
-      <c r="L50" s="37">
+      <c r="L50" s="34">
         <f>[1]!MF_PChoke_atma(L$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>42.5625</v>
       </c>
-      <c r="M50" s="37">
+      <c r="M50" s="34">
         <f>[1]!MF_PChoke_atma(M$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>60.625</v>
       </c>
-      <c r="N50" s="37">
+      <c r="N50" s="34">
         <f>[1]!MF_PChoke_atma(N$49,fw_,d_choke,$B50,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>76.25</v>
       </c>
@@ -60861,47 +60850,47 @@
         <f>[1]!MF_PChoke_atma(C$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>10</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="34">
         <f>[1]!MF_PChoke_atma(D$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>10.001025199890137</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="34">
         <f>[1]!MF_PChoke_atma(E$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>10.1031494140625</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="34">
         <f>[1]!MF_PChoke_atma(F$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>10.41748046875</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="34">
         <f>[1]!MF_PChoke_atma(G$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>10.95703125</v>
       </c>
-      <c r="H51" s="37">
+      <c r="H51" s="34">
         <f>[1]!MF_PChoke_atma(H$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>11.73828125</v>
       </c>
-      <c r="I51" s="37">
+      <c r="I51" s="34">
         <f>[1]!MF_PChoke_atma(I$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>12.8125</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="34">
         <f>[1]!MF_PChoke_atma(J$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>22.34375</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="34">
         <f>[1]!MF_PChoke_atma(K$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>32.734375</v>
       </c>
-      <c r="L51" s="37">
+      <c r="L51" s="34">
         <f>[1]!MF_PChoke_atma(L$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>42.578125</v>
       </c>
-      <c r="M51" s="37">
+      <c r="M51" s="34">
         <f>[1]!MF_PChoke_atma(M$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>60.625</v>
       </c>
-      <c r="N51" s="37">
+      <c r="N51" s="34">
         <f>[1]!MF_PChoke_atma(N$49,fw_,d_choke,$B51,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>76.25</v>
       </c>
@@ -60915,47 +60904,47 @@
         <f>[1]!MF_PChoke_atma(C$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>20</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="34">
         <f>[1]!MF_PChoke_atma(D$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>20.00053882598877</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="34">
         <f>[1]!MF_PChoke_atma(E$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>20.05401611328125</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="34">
         <f>[1]!MF_PChoke_atma(F$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>20.216064453125</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="34">
         <f>[1]!MF_PChoke_atma(G$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>20.48828125</v>
       </c>
-      <c r="H52" s="37">
+      <c r="H52" s="34">
         <f>[1]!MF_PChoke_atma(H$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>20.869140625</v>
       </c>
-      <c r="I52" s="37">
+      <c r="I52" s="34">
         <f>[1]!MF_PChoke_atma(I$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>21.3671875</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="34">
         <f>[1]!MF_PChoke_atma(J$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>25.64453125</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="34">
         <f>[1]!MF_PChoke_atma(K$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>33.0078125</v>
       </c>
-      <c r="L52" s="37">
+      <c r="L52" s="34">
         <f>[1]!MF_PChoke_atma(L$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>42.578125</v>
       </c>
-      <c r="M52" s="37">
+      <c r="M52" s="34">
         <f>[1]!MF_PChoke_atma(M$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>60.625</v>
       </c>
-      <c r="N52" s="37">
+      <c r="N52" s="34">
         <f>[1]!MF_PChoke_atma(N$49,fw_,d_choke,$B52,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>76.25</v>
       </c>
@@ -60969,47 +60958,47 @@
         <f>[1]!MF_PChoke_atma(C$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>30</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="34">
         <f>[1]!MF_PChoke_atma(D$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>30.000376403331757</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="34">
         <f>[1]!MF_PChoke_atma(E$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>30.037651062011719</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="34">
         <f>[1]!MF_PChoke_atma(F$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>30.150604248046875</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="34">
         <f>[1]!MF_PChoke_atma(G$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>30.3387451171875</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="34">
         <f>[1]!MF_PChoke_atma(H$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>30.604248046875</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="34">
         <f>[1]!MF_PChoke_atma(I$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>30.94482421875</v>
       </c>
-      <c r="J53" s="37">
+      <c r="J53" s="34">
         <f>[1]!MF_PChoke_atma(J$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>33.7939453125</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="34">
         <f>[1]!MF_PChoke_atma(K$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>38.525390625</v>
       </c>
-      <c r="L53" s="37">
+      <c r="L53" s="34">
         <f>[1]!MF_PChoke_atma(L$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>44.94140625</v>
       </c>
-      <c r="M53" s="37">
+      <c r="M53" s="34">
         <f>[1]!MF_PChoke_atma(M$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>60.703125</v>
       </c>
-      <c r="N53" s="37">
+      <c r="N53" s="34">
         <f>[1]!MF_PChoke_atma(N$49,fw_,d_choke,$B53,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>76.171875</v>
       </c>
@@ -61023,47 +61012,47 @@
         <f>[1]!MF_PChoke_atma(C$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>40</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="34">
         <f>[1]!MF_PChoke_atma(D$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>40.000295639038086</v>
       </c>
-      <c r="E54" s="37">
+      <c r="E54" s="34">
         <f>[1]!MF_PChoke_atma(E$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>40.02960205078125</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="34">
         <f>[1]!MF_PChoke_atma(F$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>40.118408203125</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="34">
         <f>[1]!MF_PChoke_atma(G$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>40.26611328125</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="34">
         <f>[1]!MF_PChoke_atma(H$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>40.472412109375</v>
       </c>
-      <c r="I54" s="37">
+      <c r="I54" s="34">
         <f>[1]!MF_PChoke_atma(I$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>40.7373046875</v>
       </c>
-      <c r="J54" s="37">
+      <c r="J54" s="34">
         <f>[1]!MF_PChoke_atma(J$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>42.939453125</v>
       </c>
-      <c r="K54" s="37">
+      <c r="K54" s="34">
         <f>[1]!MF_PChoke_atma(K$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>46.5625</v>
       </c>
-      <c r="L54" s="37">
+      <c r="L54" s="34">
         <f>[1]!MF_PChoke_atma(L$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>51.484375</v>
       </c>
-      <c r="M54" s="37">
+      <c r="M54" s="34">
         <f>[1]!MF_PChoke_atma(M$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>64.0625</v>
       </c>
-      <c r="N54" s="37">
+      <c r="N54" s="34">
         <f>[1]!MF_PChoke_atma(N$49,fw_,d_choke,$B54,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>77.8125</v>
       </c>
@@ -61077,47 +61066,47 @@
         <f>[1]!MF_PChoke_atma(C$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>50</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="34">
         <f>[1]!MF_PChoke_atma(D$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>50.000247359275818</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E55" s="34">
         <f>[1]!MF_PChoke_atma(E$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>50.024795532226563</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="34">
         <f>[1]!MF_PChoke_atma(F$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>50.098800659179688</v>
       </c>
-      <c r="G55" s="37">
+      <c r="G55" s="34">
         <f>[1]!MF_PChoke_atma(G$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>50.2227783203125</v>
       </c>
-      <c r="H55" s="37">
+      <c r="H55" s="34">
         <f>[1]!MF_PChoke_atma(H$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>50.39520263671875</v>
       </c>
-      <c r="I55" s="37">
+      <c r="I55" s="34">
         <f>[1]!MF_PChoke_atma(I$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>50.616455078125</v>
       </c>
-      <c r="J55" s="37">
+      <c r="J55" s="34">
         <f>[1]!MF_PChoke_atma(J$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>52.45361328125</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="34">
         <f>[1]!MF_PChoke_atma(K$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>55.46875</v>
       </c>
-      <c r="L55" s="37">
+      <c r="L55" s="34">
         <f>[1]!MF_PChoke_atma(L$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>59.5458984375</v>
       </c>
-      <c r="M55" s="37">
+      <c r="M55" s="34">
         <f>[1]!MF_PChoke_atma(M$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>70.21484375</v>
       </c>
-      <c r="N55" s="37">
+      <c r="N55" s="34">
         <f>[1]!MF_PChoke_atma(N$49,fw_,d_choke,$B55,0,d_pipe,T_choke,0,PVTstr_)</f>
         <v>82.51953125</v>
       </c>
